--- a/fab/JLC-CPL.xlsx
+++ b/fab/JLC-CPL.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Crane\Desktop\projects\SMD GCCPCB\5V PCB\GCCPCB v2.0 Beta\jlcpcb\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Crane\Desktop\projects\Products\Active\Model_S\Model_S_v2.1\jlcpcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAB88BC-8FB0-44FB-8092-E94B965292AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F5CA99-57A9-438B-AE0D-68231F54BD5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1635" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GCCPCB v2.0-top-pos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>C1</t>
   </si>
@@ -122,6 +133,36 @@
   </si>
   <si>
     <t>R7</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>J14</t>
   </si>
 </sst>
 </file>
@@ -1008,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,10 +1083,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>128.92500000000001</v>
+        <v>128.82499999999999</v>
       </c>
       <c r="C2" s="2">
-        <v>-117.925</v>
+        <v>-118.325</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -1059,10 +1100,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>125.3</v>
+        <v>125.2</v>
       </c>
       <c r="C3" s="2">
-        <v>-121</v>
+        <v>-121.4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -1076,10 +1117,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>108.715</v>
+        <v>108.76</v>
       </c>
       <c r="C4" s="2">
-        <v>-107.93</v>
+        <v>-107.57</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -1229,16 +1270,16 @@
         <v>32</v>
       </c>
       <c r="B13" s="2">
-        <v>155.69</v>
+        <v>147.86000000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>-116.94499999999999</v>
+        <v>-121.27</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1277,98 +1318,98 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2">
-        <v>132.75</v>
+        <v>137.16</v>
       </c>
       <c r="C16" s="2">
-        <v>-120.3</v>
+        <v>-109.44499999999999</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
-        <v>138.96799999999999</v>
+        <v>183.06</v>
       </c>
       <c r="C17" s="2">
-        <v>-120.3</v>
+        <v>-128.97</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2">
-        <v>87.15</v>
+        <v>174.44</v>
       </c>
       <c r="C18" s="2">
-        <v>-115.4</v>
+        <v>-121.37</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2">
-        <v>136.30000000000001</v>
+        <v>86.92</v>
       </c>
       <c r="C19" s="2">
-        <v>-120.3</v>
+        <v>-132.47399999999999</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2">
-        <v>141.65</v>
+        <v>102.16</v>
       </c>
       <c r="C20" s="2">
-        <v>-120.3</v>
+        <v>-140.97</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2">
-        <v>114.5</v>
+        <v>116.16</v>
       </c>
       <c r="C21" s="2">
-        <v>-111.85</v>
+        <v>-140.97</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>1</v>
@@ -1379,13 +1420,14 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2">
-        <v>114.5</v>
+        <f>B21+14</f>
+        <v>130.16</v>
       </c>
       <c r="C22" s="2">
-        <v>-113.75</v>
+        <v>-140.97</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>1</v>
@@ -1396,13 +1438,14 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2">
-        <v>107.09</v>
+        <f t="shared" ref="B23:B25" si="0">B22+14</f>
+        <v>144.16</v>
       </c>
       <c r="C23" s="2">
-        <v>-127.2</v>
+        <v>-140.97</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>1</v>
@@ -1412,82 +1455,84 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="4">
-        <v>148.46</v>
-      </c>
-      <c r="C24" s="4">
-        <v>-110.02</v>
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>158.16</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-140.97</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2">
-        <v>87.15</v>
+        <f t="shared" si="0"/>
+        <v>172.16</v>
       </c>
       <c r="C25" s="2">
-        <v>-120.65</v>
+        <v>-140.97</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B26" s="2">
-        <v>129.02500000000001</v>
+        <v>132.65</v>
       </c>
       <c r="C26" s="2">
-        <v>-121.535</v>
+        <v>-120.7</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B27" s="2">
-        <v>150.08000000000001</v>
+        <v>138.86799999999999</v>
       </c>
       <c r="C27" s="2">
-        <v>-120.65</v>
+        <v>-121.6</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B28" s="2">
-        <v>104.74</v>
+        <v>87.15</v>
       </c>
       <c r="C28" s="2">
-        <v>-118.6</v>
+        <v>-115.4</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>1</v>
@@ -1498,18 +1543,188 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="C29" s="2">
+        <v>-121.6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="2">
+        <v>141.55000000000001</v>
+      </c>
+      <c r="C30" s="2">
+        <v>-121.6</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="2">
+        <v>114.5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>-110.77</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="2">
+        <v>114.5</v>
+      </c>
+      <c r="C32" s="2">
+        <v>-112.97</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="2">
+        <v>107.09</v>
+      </c>
+      <c r="C33" s="2">
+        <v>-127.2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>148.46</v>
+      </c>
+      <c r="C34" s="4">
+        <v>-110.02</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="2">
+        <v>87.15</v>
+      </c>
+      <c r="C35" s="2">
+        <v>-120.65</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="2">
+        <v>128.92500000000001</v>
+      </c>
+      <c r="C36" s="2">
+        <v>-121.935</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="2">
+        <v>153.18</v>
+      </c>
+      <c r="C37" s="2">
+        <v>-118.65</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="2">
+        <v>104.74</v>
+      </c>
+      <c r="C38" s="2">
+        <v>-118.6</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B39" s="2">
         <v>92.74</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C39" s="2">
         <v>-120.76</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="D39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
         <v>45</v>
       </c>
     </row>

--- a/fab/JLC-CPL.xlsx
+++ b/fab/JLC-CPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Crane\Desktop\projects\Products\Active\Model_S\Model_S_v2.1\jlcpcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Crane\Desktop\projects\Products\Active\Model_S\Model_S_v2.2\jlcpcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F5CA99-57A9-438B-AE0D-68231F54BD5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1766350D-FFC4-42D3-84CF-9A3FE10B2552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1635" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GCCPCB v2.0-top-pos" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>C1</t>
   </si>
@@ -111,9 +111,6 @@
     <t>X1</t>
   </si>
   <si>
-    <t>SW2</t>
-  </si>
-  <si>
     <t>Designator</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>J1</t>
   </si>
   <si>
-    <t>J5</t>
-  </si>
-  <si>
     <t>J8</t>
   </si>
   <si>
@@ -163,6 +157,30 @@
   </si>
   <si>
     <t>J14</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>SW1</t>
   </si>
 </sst>
 </file>
@@ -492,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -622,19 +640,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -680,18 +685,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1049,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,669 +1064,771 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>122.56</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-108.27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>124.685</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-117.545</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>120.58500100000001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-114.53500099999999</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>120.58499999999999</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-116.495</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>120.58499999999999</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-118.44499999999999</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>108.76</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-107.57</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>98.99</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-127.85</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>110.79</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-127.2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>95.74</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-116.1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>114.5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-116.1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>101.215</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-107.93</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>128.82499999999999</v>
-      </c>
-      <c r="C2" s="2">
-        <v>-118.325</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B13" s="3">
+        <v>92.15</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-124.57</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>125.2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-121.4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="3">
+        <v>92.15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-116.95</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="3">
+        <v>147.86000000000001</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-121.27</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="3">
+        <v>104.965</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-107.93</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3">
+        <v>120.76</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-123.32</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3">
+        <v>120.76</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-120.97</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3">
+        <v>129.54</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-112.79</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>108.76</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-107.57</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>98.99</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-127.85</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>110.79</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-127.2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>95.74</v>
-      </c>
-      <c r="C7" s="2">
-        <v>-116.1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3">
+        <v>183.06</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-128.97</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="3">
+        <v>86.92</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-132.47399999999999</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="3">
+        <v>174.44</v>
+      </c>
+      <c r="C22" s="3">
+        <v>-121.37</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>114.5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-116.1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>101.215</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-107.93</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>92.15</v>
-      </c>
-      <c r="C10" s="2">
-        <v>-124.57</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>92.15</v>
-      </c>
-      <c r="C11" s="2">
-        <v>-116.95</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>104.965</v>
-      </c>
-      <c r="C12" s="2">
-        <v>-107.93</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="2">
-        <v>147.86000000000001</v>
-      </c>
-      <c r="C13" s="1">
-        <v>-121.27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>120.16</v>
-      </c>
-      <c r="C14" s="2">
-        <v>-119.47</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>120.16</v>
-      </c>
-      <c r="C15" s="2">
-        <v>-121.97</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="2">
-        <v>137.16</v>
-      </c>
-      <c r="C16" s="2">
-        <v>-109.44499999999999</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2">
-        <v>183.06</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-128.97</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B23" s="3">
+        <v>144.78</v>
+      </c>
+      <c r="C23" s="3">
+        <v>-112.79</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2">
-        <v>174.44</v>
-      </c>
-      <c r="C18" s="2">
-        <v>-121.37</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B24" s="3">
+        <v>102.16</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-140.97</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="2">
-        <v>86.92</v>
-      </c>
-      <c r="C19" s="2">
-        <v>-132.47399999999999</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B25" s="3">
+        <v>116.16</v>
+      </c>
+      <c r="C25" s="3">
+        <v>-140.97</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2">
-        <v>102.16</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B26" s="3">
+        <f>B25+14</f>
+        <v>130.16</v>
+      </c>
+      <c r="C26" s="3">
         <v>-140.97</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="D26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="2">
-        <v>116.16</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B27" s="3">
+        <f t="shared" ref="B27:B29" si="0">B26+14</f>
+        <v>144.16</v>
+      </c>
+      <c r="C27" s="3">
         <v>-140.97</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="D27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2">
-        <f>B21+14</f>
-        <v>130.16</v>
-      </c>
-      <c r="C22" s="2">
-        <v>-140.97</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="2">
-        <f t="shared" ref="B23:B25" si="0">B22+14</f>
-        <v>144.16</v>
-      </c>
-      <c r="C23" s="2">
-        <v>-140.97</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="2">
+      <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>158.16</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C28" s="3">
         <v>-140.97</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="D28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>172.16</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C29" s="3">
         <v>-140.97</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="D29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="2">
-        <v>132.65</v>
-      </c>
-      <c r="C26" s="2">
-        <v>-120.7</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="B30" s="3">
+        <v>118.41</v>
+      </c>
+      <c r="C30" s="3">
+        <v>-109.295</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B31" s="3">
         <v>138.86799999999999</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C31" s="3">
         <v>-121.6</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="D31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B32" s="3">
+        <v>125.61</v>
+      </c>
+      <c r="C32" s="3">
+        <v>-113.77</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="3">
+        <v>125.61</v>
+      </c>
+      <c r="C33" s="3">
+        <v>-110.045</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="3">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="C34" s="3">
+        <v>-121.6</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="3">
+        <v>141.55000000000001</v>
+      </c>
+      <c r="C35" s="3">
+        <v>-121.6</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="3">
+        <v>149.91</v>
+      </c>
+      <c r="C36" s="3">
+        <v>-113.17</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="3">
         <v>87.15</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C37" s="3">
         <v>-115.4</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="D37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="2">
-        <v>136.19999999999999</v>
-      </c>
-      <c r="C29" s="2">
-        <v>-121.6</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="2">
-        <v>141.55000000000001</v>
-      </c>
-      <c r="C30" s="2">
-        <v>-121.6</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="3">
+        <v>113.35</v>
+      </c>
+      <c r="C38" s="3">
+        <v>-109.57</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="3">
+        <v>113.35</v>
+      </c>
+      <c r="C39" s="3">
+        <v>-111.77</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="3">
+        <v>107.09</v>
+      </c>
+      <c r="C40" s="3">
+        <v>-127.2</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="3">
+        <v>87.15</v>
+      </c>
+      <c r="C41" s="3">
+        <v>-120.65</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="2">
-        <v>114.5</v>
-      </c>
-      <c r="C31" s="2">
-        <v>-110.77</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="2">
-        <v>114.5</v>
-      </c>
-      <c r="C32" s="2">
-        <v>-112.97</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="2">
-        <v>107.09</v>
-      </c>
-      <c r="C33" s="2">
-        <v>-127.2</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4">
-        <v>148.46</v>
-      </c>
-      <c r="C34" s="4">
-        <v>-110.02</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="2">
-        <v>87.15</v>
-      </c>
-      <c r="C35" s="2">
-        <v>-120.65</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="3">
+        <v>122.285</v>
+      </c>
+      <c r="C42" s="3">
+        <v>-111.42</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="3">
+        <v>153.18</v>
+      </c>
+      <c r="C43" s="3">
+        <v>-118.65</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="2">
-        <v>128.92500000000001</v>
-      </c>
-      <c r="C36" s="2">
-        <v>-121.935</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="2">
-        <v>153.18</v>
-      </c>
-      <c r="C37" s="2">
-        <v>-118.65</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B44" s="3">
         <v>104.74</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C44" s="3">
         <v>-118.6</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
+      <c r="D44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B45" s="3">
         <v>92.74</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C45" s="3">
         <v>-120.76</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="D45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
         <v>45</v>
       </c>
     </row>
